--- a/other/merged_mining_difficulty_blocktime.xlsx
+++ b/other/merged_mining_difficulty_blocktime.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevoulee/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevoulee/modelling/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE5928C7-8951-AD45-821B-6C469A3531BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E707FC2F-9510-FF4E-B9DE-7F9878965A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -453,11 +452,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1017,7 +1016,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f>$J$4*2-J13</f>
         <v>145.00000000000006</v>
       </c>
       <c r="G13">
@@ -1101,7 +1100,7 @@
         <v>0.29999999999999966</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" si="6"/>
+        <f>N13+5%</f>
         <v>1.5000000000000004</v>
       </c>
     </row>
@@ -4636,7 +4635,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="N82" s="2">
-        <f t="shared" si="31"/>
+        <f>N81</f>
         <v>0.2</v>
       </c>
     </row>
@@ -4740,7 +4739,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="N84" s="2">
-        <f t="shared" si="31"/>
+        <f>N83</f>
         <v>0.2</v>
       </c>
     </row>
@@ -4909,8 +4908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1D0A6B-5F4F-674E-A870-881FE55949C6}">
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/other/merged_mining_difficulty_blocktime.xlsx
+++ b/other/merged_mining_difficulty_blocktime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevoulee/modelling/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E707FC2F-9510-FF4E-B9DE-7F9878965A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CBD574-22DA-B64D-B2F1-E2C8016BDF59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36400" yWindow="460" windowWidth="32400" windowHeight="26640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>hash rate</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">difficulty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">block </t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R19" sqref="R19"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -493,6 +496,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -537,6 +543,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4">
         <v>100</v>
       </c>
@@ -585,6 +594,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
       <c r="B5">
         <v>100</v>
       </c>
@@ -637,6 +649,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
       <c r="B6">
         <v>100</v>
       </c>
@@ -689,6 +704,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
       <c r="B7">
         <v>100</v>
       </c>
@@ -741,6 +759,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
       <c r="B8">
         <v>100</v>
       </c>
@@ -793,6 +814,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
       <c r="B9">
         <v>100</v>
       </c>
@@ -845,6 +869,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
       <c r="B10">
         <v>100</v>
       </c>
@@ -897,6 +924,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
       <c r="B11">
         <v>100</v>
       </c>
@@ -949,6 +979,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
       <c r="B12">
         <v>100</v>
       </c>
@@ -1001,6 +1034,9 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
       <c r="B13">
         <v>100</v>
       </c>
@@ -1053,6 +1089,9 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
       <c r="B14">
         <v>100</v>
       </c>
@@ -1105,6 +1144,9 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
       <c r="B15">
         <v>100</v>
       </c>
@@ -1157,6 +1199,9 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
       <c r="B16">
         <v>100</v>
       </c>
@@ -1208,7 +1253,10 @@
         <v>1.6000000000000005</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
       <c r="B17">
         <v>100</v>
       </c>
@@ -1260,7 +1308,10 @@
         <v>1.6500000000000006</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
       <c r="B18">
         <v>100</v>
       </c>
@@ -1312,7 +1363,10 @@
         <v>1.7000000000000006</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
       <c r="B19">
         <v>100</v>
       </c>
@@ -1364,7 +1418,10 @@
         <v>1.7500000000000007</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
       <c r="B20">
         <v>100</v>
       </c>
@@ -1416,7 +1473,7 @@
         <v>1.8000000000000007</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>100</v>
       </c>
@@ -1467,7 +1524,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>100</v>
       </c>
@@ -1519,7 +1576,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>100</v>
       </c>
@@ -1571,7 +1628,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>100</v>
       </c>
@@ -1623,7 +1680,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>100</v>
       </c>
@@ -1675,7 +1732,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>100</v>
       </c>
@@ -1727,7 +1784,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>100</v>
       </c>
@@ -1779,7 +1836,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>100</v>
       </c>
@@ -1831,7 +1888,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>100</v>
       </c>
@@ -1883,7 +1940,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>100</v>
       </c>
@@ -1935,7 +1992,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>100</v>
       </c>
@@ -1987,7 +2044,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>100</v>
       </c>
